--- a/sprint-1-bd/exercicios/micromanu/micromanu.xlsx
+++ b/sprint-1-bd/exercicios/micromanu/micromanu.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erikv\Desktop\_Senai\senai-dev-2s2019\sprint-1-bd\exercicios\micromanu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\sprint-1-bd\exercicios\micromanu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1C45EE-F904-4831-9B86-DEE419EA1C7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{AFCDBBB1-C9BF-4D61-A173-A221065AE9D0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="micromanu" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,47 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Clientes</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>erik</t>
-  </si>
-  <si>
-    <t>helena</t>
-  </si>
-  <si>
-    <t>serial</t>
-  </si>
-  <si>
-    <t>entrada</t>
-  </si>
-  <si>
-    <t>saida</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>tipo</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>Computador</t>
   </si>
   <si>
@@ -86,12 +49,6 @@
     <t>Celular</t>
   </si>
   <si>
-    <t>ItemColab</t>
-  </si>
-  <si>
-    <t>Colaborador</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -119,22 +76,64 @@
     <t>1500.0</t>
   </si>
   <si>
-    <t>idCliente</t>
-  </si>
-  <si>
-    <t>idTipo</t>
-  </si>
-  <si>
-    <t>idItem</t>
-  </si>
-  <si>
-    <t>idColab</t>
+    <t>Pedidos</t>
+  </si>
+  <si>
+    <t>IdCliente</t>
+  </si>
+  <si>
+    <t>Erik</t>
+  </si>
+  <si>
+    <t>Helena</t>
+  </si>
+  <si>
+    <t>IdPedido</t>
+  </si>
+  <si>
+    <t>IdTipo</t>
+  </si>
+  <si>
+    <t>PedidosColaboradores</t>
+  </si>
+  <si>
+    <t>Colaboradores</t>
+  </si>
+  <si>
+    <t>IdColaborador</t>
+  </si>
+  <si>
+    <t>Saida</t>
+  </si>
+  <si>
+    <t>Entrada</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>IdItem</t>
+  </si>
+  <si>
+    <t>Descricao</t>
+  </si>
+  <si>
+    <t>Itens</t>
+  </si>
+  <si>
+    <t>TiposConsertos</t>
+  </si>
+  <si>
+    <t>Manutenção</t>
+  </si>
+  <si>
+    <t>Limpeza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -203,18 +202,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Célula de Verificação" xfId="1" builtinId="23"/>
@@ -529,284 +574,336 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBDE0FF-7AE0-43D4-90E3-45B7CE7C6668}">
-  <dimension ref="B1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.7109375" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="0.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:14" ht="0.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>123</v>
+      </c>
+      <c r="J4" s="2">
+        <v>43666</v>
+      </c>
+      <c r="K4" s="2">
+        <v>43668</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>321</v>
+      </c>
+      <c r="J5" s="2">
+        <v>43667</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>132</v>
+      </c>
+      <c r="J6" s="2">
+        <v>43667</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M7" s="1">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="O2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>123</v>
-      </c>
-      <c r="I4" s="3">
-        <v>43666</v>
-      </c>
-      <c r="J4" s="3">
-        <v>43668</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>321</v>
-      </c>
-      <c r="I5" s="3">
-        <v>43667</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="L5" s="2">
-        <v>2</v>
-      </c>
-      <c r="M5" s="2">
-        <v>2</v>
-      </c>
-      <c r="O5" s="2">
-        <v>2</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E6" s="2">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>4</v>
-      </c>
-      <c r="H6" s="2">
-        <v>132</v>
-      </c>
-      <c r="I6" s="3">
-        <v>43667</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="L6" s="2">
-        <v>2</v>
-      </c>
-      <c r="M6" s="2">
-        <v>3</v>
-      </c>
-      <c r="O6" s="2">
-        <v>3</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L7" s="2">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2">
-        <v>4</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E8" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E12" s="2">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E13" s="2">
-        <v>4</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E14" s="2">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="M15" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="O2:Q2"/>
+  <mergeCells count="6">
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="E2:K2"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/sprint-1-bd/exercicios/micromanu/micromanu.xlsx
+++ b/sprint-1-bd/exercicios/micromanu/micromanu.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\sprint-1-bd\exercicios\micromanu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\senai-dev-2s2019\sprint-1-bd\exercicios\micromanu\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBA6366-7F17-4E27-8C2B-502D384EC4C9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="micromanu" sheetId="1" r:id="rId1"/>
@@ -19,11 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -109,9 +105,6 @@
     <t>Entrada</t>
   </si>
   <si>
-    <t>Serial</t>
-  </si>
-  <si>
     <t>IdItem</t>
   </si>
   <si>
@@ -128,12 +121,15 @@
   </si>
   <si>
     <t>Limpeza</t>
+  </si>
+  <si>
+    <t>NumeroEquipamento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,9 +244,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -258,6 +251,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -574,11 +570,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +586,7 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="1.7109375" customWidth="1"/>
@@ -602,23 +598,23 @@
   <sheetData>
     <row r="1" spans="2:14" ht="0.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="M2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="3"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -634,13 +630,13 @@
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>25</v>
@@ -759,27 +755,27 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="H8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -793,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -807,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -835,11 +831,11 @@
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E18" s="1" t="s">
